--- a/results/mp/logistic/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,9 @@
     <t>forced</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -67,6 +58,9 @@
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -79,112 +73,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -542,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -682,16 +673,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,7 +702,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5882352941176471</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -729,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5555555555555556</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5405405405405406</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4391534391534391</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.823943661971831</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3725490196078431</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8207547169811321</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="M10">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3604651162790697</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="C11">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>330</v>
+        <v>223</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,154 +1052,106 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2013422818791946</v>
+        <v>0.006769825918762089</v>
       </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0.19</v>
+      </c>
+      <c r="F12">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3081</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8046875</v>
+      </c>
+      <c r="L12">
+        <v>103</v>
+      </c>
+      <c r="M12">
+        <v>103</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.8015665796344648</v>
+      </c>
+      <c r="L13">
+        <v>307</v>
+      </c>
+      <c r="M13">
+        <v>307</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>119</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L12">
-        <v>29</v>
-      </c>
-      <c r="M12">
-        <v>29</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="K14">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L14">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0873015873015873</v>
-      </c>
-      <c r="C13">
-        <v>22</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>230</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L13">
-        <v>29</v>
-      </c>
-      <c r="M13">
-        <v>29</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.007407407407407408</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>0.08</v>
-      </c>
-      <c r="F14">
-        <v>0.92</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3082</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7890625</v>
-      </c>
-      <c r="L14">
-        <v>101</v>
-      </c>
-      <c r="M14">
-        <v>101</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15">
         <v>0.7804878048780488</v>
@@ -1234,42 +1177,42 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.7575757575757576</v>
-      </c>
-      <c r="L16">
-        <v>25</v>
-      </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1281,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1307,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7407407407407407</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1333,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7301587301587301</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1359,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1385,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6785714285714286</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1411,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1437,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1463,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.6441176470588236</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L25">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M25">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1489,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.6063829787234043</v>
+        <v>0.602510460251046</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1515,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1541,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5941422594142259</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1567,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5694915254237288</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L29">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1593,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1619,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1645,21 +1588,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.54</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1671,21 +1614,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5056179775280899</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1697,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.4523809523809524</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L34">
         <v>19</v>
@@ -1723,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1749,47 +1692,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.3888888888888889</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.358974358974359</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1801,33 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38">
-        <v>0.006578947368421052</v>
-      </c>
-      <c r="L38">
-        <v>21</v>
-      </c>
-      <c r="M38">
-        <v>30</v>
-      </c>
-      <c r="N38">
-        <v>0.7</v>
-      </c>
-      <c r="O38">
-        <v>0.3</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>3171</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
